--- a/Pull Request Here/Visible Raid Points - 2562730174/Visible Raid Points - 2562730174.xlsx
+++ b/Pull Request Here/Visible Raid Points - 2562730174/Visible Raid Points - 2562730174.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165143A7-07C9-48F8-87F4-716ED073D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5A290-8A9C-4205-A84C-8ECB3BF9FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,10 +1314,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이 지역의 재산) - (건물 가치 / 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>대상이 도착한 방식</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1330,18 +1326,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>재산에 따라 증가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>계산되는 정착민과 동물들</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>포인트 (계산된 정착민과 동물들의 합계)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VisibleRaidPoints_PsychicRitualSiegeThreatDesc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1375,6 +1363,18 @@
   </si>
   <si>
     <t>중간 점수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 재산) - (건물 가치 / 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 (정착민과 동물의 합계)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재산에 따라 증가함</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2024,7 +2024,7 @@
         <v>294</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2293,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2625,7 +2625,7 @@
         <v>376</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2659,7 +2659,7 @@
         <v>109</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2676,7 +2676,7 @@
         <v>320</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>114</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
         <v>303</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,7 +2880,7 @@
         <v>216</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
         <v>142</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,7 +2962,7 @@
         <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>336</v>
@@ -3033,7 +3033,7 @@
         <v>306</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3379,7 +3379,7 @@
         <v>208</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>356</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>291</v>
@@ -3444,7 +3444,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>349</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
@@ -3470,7 +3470,7 @@
         <v>294</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
